--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.23709466666667</v>
+        <v>35.00391733333333</v>
       </c>
       <c r="H2">
-        <v>123.711284</v>
+        <v>105.011752</v>
       </c>
       <c r="I2">
-        <v>0.956365997213294</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="J2">
-        <v>0.9563659972132939</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.045969</v>
+        <v>0.01257466666666667</v>
       </c>
       <c r="N2">
-        <v>0.137907</v>
+        <v>0.037724</v>
       </c>
       <c r="O2">
-        <v>0.1000598587333892</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1000598587333892</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.895628004732</v>
+        <v>0.4401625924942222</v>
       </c>
       <c r="R2">
-        <v>17.060652042588</v>
+        <v>3.961463332448</v>
       </c>
       <c r="S2">
-        <v>0.0956938465785791</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="T2">
-        <v>0.09569384657857909</v>
+        <v>0.9591895364534718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>41.23709466666667</v>
+        <v>0.030543</v>
       </c>
       <c r="H3">
-        <v>123.711284</v>
+        <v>0.091629</v>
       </c>
       <c r="I3">
-        <v>0.956365997213294</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="J3">
-        <v>0.9563659972132939</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.413446</v>
+        <v>0.01257466666666667</v>
       </c>
       <c r="N3">
-        <v>1.240338</v>
+        <v>0.037724</v>
       </c>
       <c r="O3">
-        <v>0.8999401412666108</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8999401412666108</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>17.04931184155467</v>
+        <v>0.000384068044</v>
       </c>
       <c r="R3">
-        <v>153.443806573992</v>
+        <v>0.003456612396</v>
       </c>
       <c r="S3">
-        <v>0.8606721506347149</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="T3">
-        <v>0.8606721506347148</v>
+        <v>0.0008369499257158872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,22 +652,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.030543</v>
+        <v>1.458762333333333</v>
       </c>
       <c r="H4">
-        <v>0.091629</v>
+        <v>4.376287</v>
       </c>
       <c r="I4">
-        <v>0.0007083497731593903</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="J4">
-        <v>0.0007083497731593902</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.045969</v>
+        <v>0.01257466666666667</v>
       </c>
       <c r="N4">
-        <v>0.137907</v>
+        <v>0.037724</v>
       </c>
       <c r="O4">
-        <v>0.1000598587333892</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1000598587333892</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.001404031167</v>
+        <v>0.01834345008755555</v>
       </c>
       <c r="R4">
-        <v>0.012636280503</v>
+        <v>0.165091050788</v>
       </c>
       <c r="S4">
-        <v>7.087737823615689E-05</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="T4">
-        <v>7.087737823615688E-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.030543</v>
-      </c>
-      <c r="H5">
-        <v>0.091629</v>
-      </c>
-      <c r="I5">
-        <v>0.0007083497731593903</v>
-      </c>
-      <c r="J5">
-        <v>0.0007083497731593902</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.413446</v>
-      </c>
-      <c r="N5">
-        <v>1.240338</v>
-      </c>
-      <c r="O5">
-        <v>0.8999401412666108</v>
-      </c>
-      <c r="P5">
-        <v>0.8999401412666108</v>
-      </c>
-      <c r="Q5">
-        <v>0.012627881178</v>
-      </c>
-      <c r="R5">
-        <v>0.113650930602</v>
-      </c>
-      <c r="S5">
-        <v>0.0006374723949232334</v>
-      </c>
-      <c r="T5">
-        <v>0.0006374723949232334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.850891</v>
-      </c>
-      <c r="H6">
-        <v>5.552673</v>
-      </c>
-      <c r="I6">
-        <v>0.04292565301354671</v>
-      </c>
-      <c r="J6">
-        <v>0.0429256530135467</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.045969</v>
-      </c>
-      <c r="N6">
-        <v>0.137907</v>
-      </c>
-      <c r="O6">
-        <v>0.1000598587333892</v>
-      </c>
-      <c r="P6">
-        <v>0.1000598587333892</v>
-      </c>
-      <c r="Q6">
-        <v>0.085083608379</v>
-      </c>
-      <c r="R6">
-        <v>0.7657524754110001</v>
-      </c>
-      <c r="S6">
-        <v>0.004295134776573967</v>
-      </c>
-      <c r="T6">
-        <v>0.004295134776573966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.850891</v>
-      </c>
-      <c r="H7">
-        <v>5.552673</v>
-      </c>
-      <c r="I7">
-        <v>0.04292565301354671</v>
-      </c>
-      <c r="J7">
-        <v>0.0429256530135467</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.413446</v>
-      </c>
-      <c r="N7">
-        <v>1.240338</v>
-      </c>
-      <c r="O7">
-        <v>0.8999401412666108</v>
-      </c>
-      <c r="P7">
-        <v>0.8999401412666108</v>
-      </c>
-      <c r="Q7">
-        <v>0.765243480386</v>
-      </c>
-      <c r="R7">
-        <v>6.887191323474</v>
-      </c>
-      <c r="S7">
-        <v>0.03863051823697274</v>
-      </c>
-      <c r="T7">
-        <v>0.03863051823697274</v>
+        <v>0.03997351362081222</v>
       </c>
     </row>
   </sheetData>
